--- a/INPUT/Stata_output BRES2018_rev.xlsx
+++ b/INPUT/Stata_output BRES2018_rev.xlsx
@@ -29698,9 +29698,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7432F78A-6840-4679-B6E2-FA88BCB43C45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA650FE-2377-4E1B-B89D-23ECD57453CE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{387D4674-E8B8-4C56-A8B0-04867F831439}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702214A6-75D1-4692-BFD0-862CECD29A80}"/>
 </file>
--- a/INPUT/Stata_output BRES2018_rev.xlsx
+++ b/INPUT/Stata_output BRES2018_rev.xlsx
@@ -29452,8 +29452,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100535EDF9DD8DBB143AE8CD71BDB6B0E3B" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f6f28cdb5a9692a6c52c88c0d72e532e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7fc9ebc1-6786-4aad-aee1-fdcde6e01ff9" xmlns:ns3="fd7425d0-09b7-49b7-b351-1ad2162dc0d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5bf8c08f73f601645ffb79004a62600" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100535EDF9DD8DBB143AE8CD71BDB6B0E3B" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58db4c0cb4a6c8574584e2b7e3b481f7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7fc9ebc1-6786-4aad-aee1-fdcde6e01ff9" xmlns:ns3="fd7425d0-09b7-49b7-b351-1ad2162dc0d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f205f5aa0458c3a5f4d8c0367cd4bd4" ns2:_="" ns3:_="">
     <xsd:import namespace="7fc9ebc1-6786-4aad-aee1-fdcde6e01ff9"/>
     <xsd:import namespace="fd7425d0-09b7-49b7-b351-1ad2162dc0d7"/>
     <xsd:element name="properties">
@@ -29476,6 +29476,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -29546,6 +29547,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="23" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fd7425d0-09b7-49b7-b351-1ad2162dc0d7" elementFormDefault="qualified">
@@ -29698,9 +29704,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA650FE-2377-4E1B-B89D-23ECD57453CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{815633E0-C000-40C9-B4DD-6E99AA1F9CA2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702214A6-75D1-4692-BFD0-862CECD29A80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43AABCF7-E0B9-4E2A-84C3-FACFF0F4BBB8}"/>
 </file>